--- a/File_Excel/commenti_positivi_negativi_per_notizia_politica.xlsx
+++ b/File_Excel/commenti_positivi_negativi_per_notizia_politica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G4" t="n">
         <v>16</v>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
         <v>17</v>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G7" t="n">
         <v>16</v>
@@ -652,7 +652,7 @@
         <v>81</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G17" t="n">
         <v>20</v>
@@ -939,10 +939,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G19" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" t="n">
         <v>22</v>
@@ -1029,7 +1029,7 @@
         <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G22" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G23" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G25" t="n">
         <v>22</v>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G27" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G28" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -1244,24 +1244,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G29" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -1283,14 +1283,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G30" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1312,14 +1312,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G31" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
@@ -1336,16 +1336,16 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G32" t="n">
         <v>23</v>
@@ -1370,14 +1370,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>75</v>
       </c>
       <c r="G33" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G34" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -1423,19 +1423,19 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G35" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -1452,19 +1452,19 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corrirere Della Sera</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1486,14 +1486,72 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>74</v>
+      </c>
+      <c r="G37" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>POLITICA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>La morte di Silvio Berlusconi</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>81</v>
+      </c>
+      <c r="G38" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>POLITICA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>La morte di Silvio Berlusconi</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>YouTube</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>47</v>
-      </c>
-      <c r="G37" t="n">
-        <v>28</v>
+      <c r="F39" t="n">
+        <v>66</v>
+      </c>
+      <c r="G39" t="n">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/File_Excel/commenti_positivi_negativi_per_notizia_politica.xlsx
+++ b/File_Excel/commenti_positivi_negativi_per_notizia_politica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G33" t="n">
         <v>24</v>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Il Corrirere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1461,10 +1461,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -1486,14 +1486,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -1515,42 +1515,13 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G38" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>POLITICA</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>La morte di Silvio Berlusconi</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>La Repubblica</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>66</v>
-      </c>
-      <c r="G39" t="n">
         <v>34</v>
       </c>
     </row>
